--- a/results/geomx/geomx_worksheets/Tamburini_061423_20230619T1930_annotations.xlsx
+++ b/results/geomx/geomx_worksheets/Tamburini_061423_20230619T1930_annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LabWorksheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="227">
   <si>
     <t xml:space="preserve">Sample_ID</t>
   </si>
@@ -84,12 +84,12 @@
     <t xml:space="preserve">region</t>
   </si>
   <si>
+    <t xml:space="preserve">region_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">region_3</t>
   </si>
   <si>
-    <t xml:space="preserve">region_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">LN</t>
   </si>
   <si>
@@ -126,27 +126,30 @@
     <t xml:space="preserve">DCs-near lymphatics</t>
   </si>
   <si>
-    <t xml:space="preserve">near lymphatics</t>
+    <t xml:space="preserve">sinus/cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ova-GeoMX+VV 6week LN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP-1001660015236-G-A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyve1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyve1-aoi-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyve1, CD11C, Other, Lyve1</t>
   </si>
   <si>
     <t xml:space="preserve">lymphatics-sinus/cortex</t>
   </si>
   <si>
-    <t xml:space="preserve">ova-GeoMX+VV 6week LN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSP-1001660015236-G-A03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyve1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyve1-aoi-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyve1, CD11C, Other, Lyve1</t>
-  </si>
-  <si>
     <t xml:space="preserve">DSP-1001660015236-G-A04</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
     <t xml:space="preserve">all other cells in region</t>
   </si>
   <si>
-    <t xml:space="preserve">unassigned </t>
-  </si>
-  <si>
     <t xml:space="preserve">DSP-1001660015236-G-A11</t>
   </si>
   <si>
@@ -204,12 +204,12 @@
     <t xml:space="preserve">DCs-NOT near lymphatics</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT near lymphatics</t>
-  </si>
-  <si>
     <t xml:space="preserve">T cell zone</t>
   </si>
   <si>
+    <t xml:space="preserve">cortex</t>
+  </si>
+  <si>
     <t xml:space="preserve">DSP-1001660015236-G-A12</t>
   </si>
   <si>
@@ -243,15 +243,18 @@
     <t xml:space="preserve">DCs near lymphatics</t>
   </si>
   <si>
+    <t xml:space="preserve">medulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ova-GeoMX+VV 6week and 3week LN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP-1001660015236-G-B03</t>
+  </si>
+  <si>
     <t xml:space="preserve">lymphatics-medula</t>
   </si>
   <si>
-    <t xml:space="preserve">ova-GeoMX+VV 6week and 3week LN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSP-1001660015236-G-B03</t>
-  </si>
-  <si>
     <t xml:space="preserve">DSP-1001660015236-G-B04</t>
   </si>
   <si>
@@ -387,27 +390,27 @@
     <t xml:space="preserve">="016"</t>
   </si>
   <si>
+    <t xml:space="preserve">ova-GeoMX+VV 6week LN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP-1001660015236-G-D05</t>
+  </si>
+  <si>
     <t xml:space="preserve">lymphatics-sinus</t>
   </si>
   <si>
-    <t xml:space="preserve">ova-GeoMX+VV 6week LN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSP-1001660015236-G-D05</t>
-  </si>
-  <si>
     <t xml:space="preserve">DSP-1001660015236-G-D06</t>
   </si>
   <si>
     <t xml:space="preserve">="017"</t>
   </si>
   <si>
+    <t xml:space="preserve">DSP-1001660015236-G-D07</t>
+  </si>
+  <si>
     <t xml:space="preserve">lymphatics-cortex</t>
   </si>
   <si>
-    <t xml:space="preserve">DSP-1001660015236-G-D07</t>
-  </si>
-  <si>
     <t xml:space="preserve">DSP-1001660015236-G-D08</t>
   </si>
   <si>
@@ -445,6 +448,9 @@
   </si>
   <si>
     <t xml:space="preserve">lymphatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole LN</t>
   </si>
   <si>
     <t xml:space="preserve">naive LN 2</t>
@@ -805,11 +811,11 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z22" activeCellId="0" sqref="Z22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V51" activeCellId="0" sqref="V51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.83"/>
@@ -1047,10 +1053,10 @@
         <v>32</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>35</v>
@@ -1061,7 +1067,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>26</v>
@@ -1073,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>29</v>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>26</v>
@@ -1144,7 +1150,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>38</v>
@@ -1189,10 +1195,10 @@
         <v>32</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>35</v>
@@ -1203,7 +1209,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>26</v>
@@ -1215,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>29</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>26</v>
@@ -1286,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>38</v>
@@ -1331,10 +1337,10 @@
         <v>32</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>35</v>
@@ -1345,7 +1351,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>26</v>
@@ -1357,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>29</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>26</v>
@@ -1428,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>38</v>
@@ -1473,10 +1479,10 @@
         <v>32</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>35</v>
@@ -1487,7 +1493,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>26</v>
@@ -1499,19 +1505,19 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>50828.72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>843</v>
@@ -1544,10 +1550,10 @@
         <v>32</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>35</v>
@@ -1644,10 +1650,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>63916.2</v>
@@ -1689,7 +1695,7 @@
         <v>64</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>61</v>
@@ -1760,7 +1766,7 @@
         <v>69</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>61</v>
@@ -1831,7 +1837,7 @@
         <v>72</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>73</v>
@@ -1899,7 +1905,7 @@
         <v>32</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>73</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>26</v>
@@ -1925,7 +1931,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>29</v>
@@ -1937,7 +1943,7 @@
         <v>21428.01</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>271</v>
@@ -1976,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W17" s="0" t="s">
         <v>74</v>
@@ -1984,7 +1990,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>26</v>
@@ -1996,7 +2002,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>38</v>
@@ -2008,7 +2014,7 @@
         <v>16383.69</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>254</v>
@@ -2041,13 +2047,13 @@
         <v>32</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W18" s="0" t="s">
         <v>74</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>26</v>
@@ -2067,19 +2073,19 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>81360.91</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>2195</v>
@@ -2115,10 +2121,10 @@
         <v>64</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W19" s="0" t="s">
         <v>74</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>26</v>
@@ -2138,7 +2144,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>66</v>
@@ -2150,7 +2156,7 @@
         <v>131891.45</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>3846</v>
@@ -2186,7 +2192,7 @@
         <v>69</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="V20" s="0" t="s">
         <v>61</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>26</v>
@@ -2209,7 +2215,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>29</v>
@@ -2260,7 +2266,7 @@
         <v>34</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W21" s="0" t="s">
         <v>74</v>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -2280,7 +2286,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>38</v>
@@ -2325,13 +2331,13 @@
         <v>32</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W22" s="0" t="s">
         <v>74</v>
@@ -2339,7 +2345,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>26</v>
@@ -2351,7 +2357,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>29</v>
@@ -2363,7 +2369,7 @@
         <v>49457.7</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>593</v>
@@ -2399,18 +2405,18 @@
         <v>72</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="V23" s="0" t="s">
         <v>73</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>26</v>
@@ -2422,7 +2428,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>38</v>
@@ -2434,7 +2440,7 @@
         <v>31819.48</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>437</v>
@@ -2467,7 +2473,7 @@
         <v>32</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U24" s="0" t="s">
         <v>73</v>
@@ -2476,12 +2482,12 @@
         <v>73</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>26</v>
@@ -2493,19 +2499,19 @@
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>75017.31</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>1597</v>
@@ -2541,18 +2547,18 @@
         <v>64</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>73</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>26</v>
@@ -2564,7 +2570,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>66</v>
@@ -2576,7 +2582,7 @@
         <v>97125.4</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>2815</v>
@@ -2612,18 +2618,18 @@
         <v>69</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>26</v>
@@ -2635,7 +2641,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>29</v>
@@ -2686,15 +2692,15 @@
         <v>34</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>26</v>
@@ -2706,7 +2712,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>38</v>
@@ -2751,21 +2757,21 @@
         <v>32</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>26</v>
@@ -2777,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>29</v>
@@ -2789,7 +2795,7 @@
         <v>32779.67</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>561</v>
@@ -2822,21 +2828,21 @@
         <v>32</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>34</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>26</v>
@@ -2848,7 +2854,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>38</v>
@@ -2860,7 +2866,7 @@
         <v>68477.96</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>761</v>
@@ -2893,21 +2899,21 @@
         <v>32</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>26</v>
@@ -2919,7 +2925,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>66</v>
@@ -2931,7 +2937,7 @@
         <v>64355.47</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>1909</v>
@@ -2964,21 +2970,21 @@
         <v>32</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>26</v>
@@ -2990,7 +2996,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>29</v>
@@ -3041,15 +3047,15 @@
         <v>34</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>26</v>
@@ -3061,7 +3067,7 @@
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>38</v>
@@ -3106,21 +3112,21 @@
         <v>32</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>26</v>
@@ -3132,7 +3138,7 @@
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>29</v>
@@ -3183,15 +3189,15 @@
         <v>34</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>26</v>
@@ -3203,7 +3209,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>38</v>
@@ -3248,21 +3254,21 @@
         <v>32</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>26</v>
@@ -3274,7 +3280,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>29</v>
@@ -3286,7 +3292,7 @@
         <v>42767.03</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>450</v>
@@ -3322,18 +3328,18 @@
         <v>33</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>73</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>26</v>
@@ -3345,7 +3351,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>38</v>
@@ -3357,7 +3363,7 @@
         <v>48612.23</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>147</v>
@@ -3390,7 +3396,7 @@
         <v>32</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U37" s="0" t="s">
         <v>73</v>
@@ -3399,12 +3405,12 @@
         <v>73</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>26</v>
@@ -3416,7 +3422,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>66</v>
@@ -3428,7 +3434,7 @@
         <v>55426.91</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>853</v>
@@ -3461,21 +3467,21 @@
         <v>32</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>73</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>26</v>
@@ -3487,7 +3493,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>29</v>
@@ -3535,18 +3541,18 @@
         <v>33</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="V39" s="0" t="s">
         <v>73</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>26</v>
@@ -3558,7 +3564,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>38</v>
@@ -3603,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U40" s="0" t="s">
         <v>73</v>
@@ -3612,12 +3618,12 @@
         <v>73</v>
       </c>
       <c r="W40" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>26</v>
@@ -3629,7 +3635,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>29</v>
@@ -3677,10 +3683,10 @@
         <v>33</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V41" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W41" s="0" t="s">
         <v>122</v>
@@ -3700,7 +3706,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>38</v>
@@ -3745,13 +3751,13 @@
         <v>32</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W42" s="0" t="s">
         <v>122</v>
@@ -3759,7 +3765,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>26</v>
@@ -3771,7 +3777,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>29</v>
@@ -3783,7 +3789,7 @@
         <v>31418.08</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>328</v>
@@ -3819,10 +3825,10 @@
         <v>33</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="V43" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W43" s="0" t="s">
         <v>122</v>
@@ -3842,7 +3848,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>38</v>
@@ -3854,7 +3860,7 @@
         <v>20858.03</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>418</v>
@@ -3887,13 +3893,13 @@
         <v>32</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W44" s="0" t="s">
         <v>122</v>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>26</v>
@@ -3913,7 +3919,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>66</v>
@@ -3925,7 +3931,7 @@
         <v>146855.86</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>4268</v>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>26</v>
@@ -3984,7 +3990,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>29</v>
@@ -4032,10 +4038,10 @@
         <v>33</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V46" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W46" s="0" t="s">
         <v>122</v>
@@ -4043,7 +4049,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>26</v>
@@ -4055,7 +4061,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>38</v>
@@ -4100,13 +4106,13 @@
         <v>32</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W47" s="0" t="s">
         <v>122</v>
@@ -4114,7 +4120,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>26</v>
@@ -4126,7 +4132,7 @@
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>29</v>
@@ -4138,7 +4144,7 @@
         <v>48908.81</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>638</v>
@@ -4171,21 +4177,21 @@
         <v>32</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U48" s="0" t="s">
         <v>34</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>26</v>
@@ -4197,7 +4203,7 @@
         <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>38</v>
@@ -4209,7 +4215,7 @@
         <v>32476.39</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>106</v>
@@ -4242,21 +4248,21 @@
         <v>32</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>26</v>
@@ -4268,7 +4274,7 @@
         <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>66</v>
@@ -4280,7 +4286,7 @@
         <v>118000.85</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>3690</v>
@@ -4316,18 +4322,18 @@
         <v>69</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>61</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>26</v>
@@ -4339,7 +4345,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>29</v>
@@ -4351,7 +4357,7 @@
         <v>50238.6</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>1170</v>
@@ -4384,21 +4390,21 @@
         <v>32</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="V51" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>26</v>
@@ -4410,7 +4416,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>38</v>
@@ -4422,7 +4428,7 @@
         <v>67919.32</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>650</v>
@@ -4455,21 +4461,21 @@
         <v>32</v>
       </c>
       <c r="T52" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="W52" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="U52" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="V52" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="W52" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>26</v>
@@ -4481,19 +4487,19 @@
         <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>104459.08</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>2452</v>
@@ -4529,18 +4535,18 @@
         <v>64</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>26</v>
@@ -4552,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>66</v>
@@ -4564,7 +4570,7 @@
         <v>86946.78</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>3019</v>
@@ -4597,21 +4603,21 @@
         <v>32</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>26</v>
@@ -4623,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>29</v>
@@ -4635,7 +4641,7 @@
         <v>61768.11</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>902</v>
@@ -4674,15 +4680,15 @@
         <v>34</v>
       </c>
       <c r="V55" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>26</v>
@@ -4694,7 +4700,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>38</v>
@@ -4706,7 +4712,7 @@
         <v>20011.45</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>320</v>
@@ -4739,21 +4745,21 @@
         <v>32</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V56" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>26</v>
@@ -4765,7 +4771,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>66</v>
@@ -4777,7 +4783,7 @@
         <v>43677.04</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>1214</v>
@@ -4810,21 +4816,21 @@
         <v>32</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>26</v>
@@ -4836,7 +4842,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>29</v>
@@ -4884,10 +4890,10 @@
         <v>33</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V58" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W58" s="0" t="s">
         <v>74</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>26</v>
@@ -4907,7 +4913,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>38</v>
@@ -4952,13 +4958,13 @@
         <v>32</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V59" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W59" s="0" t="s">
         <v>74</v>
@@ -4966,7 +4972,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>26</v>
@@ -4978,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>29</v>
@@ -5029,15 +5035,15 @@
         <v>34</v>
       </c>
       <c r="V60" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>26</v>
@@ -5049,7 +5055,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>38</v>
@@ -5094,21 +5100,21 @@
         <v>32</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V61" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>26</v>
@@ -5120,7 +5126,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>29</v>
@@ -5132,7 +5138,7 @@
         <v>27786.8</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>444</v>
@@ -5171,15 +5177,15 @@
         <v>34</v>
       </c>
       <c r="V62" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>26</v>
@@ -5191,7 +5197,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>38</v>
@@ -5203,7 +5209,7 @@
         <v>71264.74</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>759</v>
@@ -5236,21 +5242,21 @@
         <v>32</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V63" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>26</v>
@@ -5262,7 +5268,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>66</v>
@@ -5274,7 +5280,7 @@
         <v>67120.84</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>1694</v>
@@ -5307,21 +5313,21 @@
         <v>32</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V64" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>26</v>
@@ -5333,7 +5339,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>29</v>
@@ -5381,18 +5387,18 @@
         <v>33</v>
       </c>
       <c r="U65" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V65" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>26</v>
@@ -5404,7 +5410,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>38</v>
@@ -5449,21 +5455,21 @@
         <v>32</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V66" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>26</v>
@@ -5475,7 +5481,7 @@
         <v>27</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>29</v>
@@ -5487,7 +5493,7 @@
         <v>40751.88</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>672</v>
@@ -5526,15 +5532,15 @@
         <v>34</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>26</v>
@@ -5546,7 +5552,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>38</v>
@@ -5558,7 +5564,7 @@
         <v>104028.27</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>1261</v>
@@ -5591,21 +5597,21 @@
         <v>32</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U68" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V68" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>26</v>
@@ -5617,19 +5623,19 @@
         <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>140637.54</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>3688</v>
@@ -5665,18 +5671,18 @@
         <v>64</v>
       </c>
       <c r="U69" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V69" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>26</v>
@@ -5688,7 +5694,7 @@
         <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>66</v>
@@ -5700,7 +5706,7 @@
         <v>93993.94</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>2906</v>
@@ -5733,30 +5739,30 @@
         <v>32</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U70" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V70" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>28</v>
@@ -5771,7 +5777,7 @@
         <v>30089.73</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>405</v>
@@ -5807,27 +5813,27 @@
         <v>72</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="V71" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>28</v>
@@ -5842,7 +5848,7 @@
         <v>57418.4</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>591</v>
@@ -5875,30 +5881,30 @@
         <v>32</v>
       </c>
       <c r="T72" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="V72" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>28</v>
@@ -5913,7 +5919,7 @@
         <v>83987.1</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>1853</v>
@@ -5952,27 +5958,27 @@
         <v>61</v>
       </c>
       <c r="V73" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>29</v>
@@ -6020,30 +6026,30 @@
         <v>72</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V74" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>38</v>
@@ -6088,33 +6094,33 @@
         <v>32</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V75" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>29</v>
@@ -6126,7 +6132,7 @@
         <v>28719.51</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>443</v>
@@ -6165,27 +6171,27 @@
         <v>34</v>
       </c>
       <c r="V76" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>38</v>
@@ -6197,7 +6203,7 @@
         <v>54350.22</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>485</v>
@@ -6230,33 +6236,33 @@
         <v>32</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U77" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V77" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W77" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>66</v>
@@ -6268,7 +6274,7 @@
         <v>48815.65</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>1196</v>
@@ -6301,33 +6307,33 @@
         <v>32</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U78" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V78" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>29</v>
@@ -6375,30 +6381,30 @@
         <v>33</v>
       </c>
       <c r="U79" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="V79" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W79" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>38</v>
@@ -6443,30 +6449,30 @@
         <v>32</v>
       </c>
       <c r="T80" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U80" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="V80" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>57</v>
@@ -6481,7 +6487,7 @@
         <v>47551.37</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>683</v>
@@ -6514,30 +6520,30 @@
         <v>32</v>
       </c>
       <c r="T81" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U81" s="0" t="s">
         <v>34</v>
       </c>
       <c r="V81" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W81" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>57</v>
@@ -6552,7 +6558,7 @@
         <v>32702.01</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>308</v>
@@ -6585,30 +6591,30 @@
         <v>32</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U82" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V82" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>57</v>
@@ -6623,7 +6629,7 @@
         <v>132717.9</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>3105</v>
@@ -6656,30 +6662,30 @@
         <v>32</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U83" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V83" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W83" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>71</v>
@@ -6730,27 +6736,27 @@
         <v>33</v>
       </c>
       <c r="U84" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V84" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>71</v>
@@ -6798,33 +6804,33 @@
         <v>32</v>
       </c>
       <c r="T85" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U85" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V85" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>29</v>
@@ -6875,27 +6881,27 @@
         <v>34</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W86" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>38</v>
@@ -6940,33 +6946,33 @@
         <v>32</v>
       </c>
       <c r="T87" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U87" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="W87" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>29</v>
@@ -7014,30 +7020,30 @@
         <v>33</v>
       </c>
       <c r="U88" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W88" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>38</v>
@@ -7082,33 +7088,33 @@
         <v>32</v>
       </c>
       <c r="T89" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U89" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W89" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>29</v>
@@ -7120,7 +7126,7 @@
         <v>53120.78</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>652</v>
@@ -7156,30 +7162,30 @@
         <v>59</v>
       </c>
       <c r="U90" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W90" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>38</v>
@@ -7191,7 +7197,7 @@
         <v>14408.17</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>285</v>
@@ -7224,33 +7230,33 @@
         <v>32</v>
       </c>
       <c r="T91" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U91" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W91" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>66</v>
@@ -7262,7 +7268,7 @@
         <v>113759.8</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>2951</v>
@@ -7304,24 +7310,24 @@
         <v>61</v>
       </c>
       <c r="W92" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>29</v>
@@ -7369,30 +7375,30 @@
         <v>33</v>
       </c>
       <c r="U93" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W93" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>38</v>
@@ -7437,33 +7443,33 @@
         <v>32</v>
       </c>
       <c r="T94" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U94" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="W94" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>29</v>
@@ -7475,7 +7481,7 @@
         <v>38980.58</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>430</v>
@@ -7508,33 +7514,33 @@
         <v>32</v>
       </c>
       <c r="T95" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U95" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W95" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>38</v>
@@ -7546,7 +7552,7 @@
         <v>40775.69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>534</v>
@@ -7579,33 +7585,33 @@
         <v>32</v>
       </c>
       <c r="T96" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U96" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="W96" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>66</v>
@@ -7617,7 +7623,7 @@
         <v>226278.65</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>5496</v>
@@ -7659,7 +7665,7 @@
         <v>61</v>
       </c>
       <c r="W97" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7680,11 +7686,11 @@
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.35"/>
@@ -7709,36 +7715,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -7746,7 +7752,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>95</v>
@@ -7754,45 +7760,45 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4698342</v>
@@ -7800,7 +7806,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,7 +7996,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>26</v>
@@ -8002,7 +8008,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>29</v>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>26</v>
@@ -8061,7 +8067,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>38</v>
@@ -8108,7 +8114,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>26</v>
@@ -8120,7 +8126,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>29</v>
@@ -8167,7 +8173,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -8179,7 +8185,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>38</v>
@@ -8226,7 +8232,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>26</v>
@@ -8238,7 +8244,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>29</v>
@@ -8285,7 +8291,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>26</v>
@@ -8297,7 +8303,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>38</v>
@@ -8344,7 +8350,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>26</v>
@@ -8356,19 +8362,19 @@
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>50828.72</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>843</v>
@@ -8477,10 +8483,10 @@
         <v>57</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>63916.2</v>
@@ -8698,7 +8704,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>26</v>
@@ -8710,7 +8716,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>29</v>
@@ -8722,7 +8728,7 @@
         <v>21428.01</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>271</v>
@@ -8757,7 +8763,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>26</v>
@@ -8769,7 +8775,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>38</v>
@@ -8781,7 +8787,7 @@
         <v>16383.69</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>254</v>
@@ -8816,7 +8822,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>26</v>
@@ -8828,19 +8834,19 @@
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>81360.91</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>2195</v>
@@ -8875,7 +8881,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>26</v>
@@ -8887,7 +8893,7 @@
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>66</v>
@@ -8899,7 +8905,7 @@
         <v>131891.45</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>3846</v>
@@ -8934,7 +8940,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>26</v>
@@ -8946,7 +8952,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>29</v>
@@ -8993,7 +8999,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>26</v>
@@ -9005,7 +9011,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>38</v>
@@ -9052,7 +9058,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>26</v>
@@ -9064,7 +9070,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>29</v>
@@ -9076,7 +9082,7 @@
         <v>49457.7</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>593</v>
@@ -9111,7 +9117,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>26</v>
@@ -9123,7 +9129,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>38</v>
@@ -9135,7 +9141,7 @@
         <v>31819.48</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>437</v>
@@ -9170,7 +9176,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>26</v>
@@ -9182,19 +9188,19 @@
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>75017.31</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>1597</v>
@@ -9229,7 +9235,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>26</v>
@@ -9241,7 +9247,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>66</v>
@@ -9253,7 +9259,7 @@
         <v>97125.4</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>2815</v>
@@ -9288,7 +9294,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>26</v>
@@ -9300,7 +9306,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>29</v>
@@ -9347,7 +9353,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>26</v>
@@ -9359,7 +9365,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>38</v>
@@ -9406,7 +9412,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>26</v>
@@ -9418,7 +9424,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>29</v>
@@ -9430,7 +9436,7 @@
         <v>32779.67</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>561</v>
@@ -9465,7 +9471,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>26</v>
@@ -9477,7 +9483,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>38</v>
@@ -9489,7 +9495,7 @@
         <v>68477.96</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>761</v>
@@ -9524,7 +9530,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>26</v>
@@ -9536,7 +9542,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>66</v>
@@ -9548,7 +9554,7 @@
         <v>64355.47</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>1909</v>
@@ -9583,7 +9589,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>26</v>
@@ -9595,7 +9601,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>29</v>
@@ -9642,7 +9648,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>26</v>
@@ -9654,7 +9660,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>38</v>
@@ -9701,7 +9707,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>26</v>
@@ -9713,7 +9719,7 @@
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>29</v>
@@ -9760,7 +9766,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>26</v>
@@ -9772,7 +9778,7 @@
         <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>38</v>
@@ -9819,7 +9825,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>26</v>
@@ -9831,7 +9837,7 @@
         <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>29</v>
@@ -9843,7 +9849,7 @@
         <v>42767.03</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>450</v>
@@ -9878,7 +9884,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>26</v>
@@ -9890,7 +9896,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>38</v>
@@ -9902,7 +9908,7 @@
         <v>48612.23</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>147</v>
@@ -9937,7 +9943,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>26</v>
@@ -9949,7 +9955,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>66</v>
@@ -9961,7 +9967,7 @@
         <v>55426.91</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>853</v>
@@ -9996,7 +10002,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>26</v>
@@ -10008,7 +10014,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>29</v>
@@ -10055,7 +10061,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>26</v>
@@ -10067,7 +10073,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>38</v>
@@ -10114,7 +10120,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>26</v>
@@ -10126,7 +10132,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>29</v>
@@ -10185,7 +10191,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>38</v>
@@ -10232,7 +10238,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>26</v>
@@ -10244,7 +10250,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>29</v>
@@ -10256,7 +10262,7 @@
         <v>31418.08</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>328</v>
@@ -10303,7 +10309,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>38</v>
@@ -10315,7 +10321,7 @@
         <v>20858.03</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>418</v>
@@ -10350,7 +10356,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>26</v>
@@ -10362,7 +10368,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>66</v>
@@ -10374,7 +10380,7 @@
         <v>146855.86</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>4268</v>
@@ -10409,7 +10415,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>26</v>
@@ -10421,7 +10427,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>29</v>
@@ -10468,7 +10474,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>26</v>
@@ -10480,7 +10486,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>38</v>
@@ -10527,7 +10533,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>26</v>
@@ -10539,7 +10545,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>29</v>
@@ -10551,7 +10557,7 @@
         <v>48908.81</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>638</v>
@@ -10586,7 +10592,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>26</v>
@@ -10598,7 +10604,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>38</v>
@@ -10610,7 +10616,7 @@
         <v>32476.39</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>106</v>
@@ -10645,7 +10651,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>26</v>
@@ -10657,7 +10663,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>66</v>
@@ -10669,7 +10675,7 @@
         <v>118000.85</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>3690</v>
@@ -10704,7 +10710,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>26</v>
@@ -10716,7 +10722,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>29</v>
@@ -10728,7 +10734,7 @@
         <v>50238.6</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>1170</v>
@@ -10763,7 +10769,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>26</v>
@@ -10775,7 +10781,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>38</v>
@@ -10787,7 +10793,7 @@
         <v>67919.32</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>650</v>
@@ -10822,7 +10828,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>26</v>
@@ -10834,19 +10840,19 @@
         <v>27</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>104459.08</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>2452</v>
@@ -10881,7 +10887,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>26</v>
@@ -10893,7 +10899,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>66</v>
@@ -10905,7 +10911,7 @@
         <v>86946.78</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>3019</v>
@@ -10940,7 +10946,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>26</v>
@@ -10952,7 +10958,7 @@
         <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>29</v>
@@ -10964,7 +10970,7 @@
         <v>61768.11</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>902</v>
@@ -10999,7 +11005,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>26</v>
@@ -11011,7 +11017,7 @@
         <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>38</v>
@@ -11023,7 +11029,7 @@
         <v>20011.45</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>320</v>
@@ -11058,7 +11064,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>26</v>
@@ -11070,7 +11076,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>66</v>
@@ -11082,7 +11088,7 @@
         <v>43677.04</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>1214</v>
@@ -11117,7 +11123,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>26</v>
@@ -11129,7 +11135,7 @@
         <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>29</v>
@@ -11176,7 +11182,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>26</v>
@@ -11188,7 +11194,7 @@
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>38</v>
@@ -11235,7 +11241,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>26</v>
@@ -11247,7 +11253,7 @@
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>29</v>
@@ -11294,7 +11300,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>26</v>
@@ -11306,7 +11312,7 @@
         <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>38</v>
@@ -11353,7 +11359,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>26</v>
@@ -11365,7 +11371,7 @@
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>29</v>
@@ -11377,7 +11383,7 @@
         <v>27786.8</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>444</v>
@@ -11412,7 +11418,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>26</v>
@@ -11424,7 +11430,7 @@
         <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>38</v>
@@ -11436,7 +11442,7 @@
         <v>71264.74</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>759</v>
@@ -11471,7 +11477,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>26</v>
@@ -11483,7 +11489,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>66</v>
@@ -11495,7 +11501,7 @@
         <v>67120.84</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>1694</v>
@@ -11530,7 +11536,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>26</v>
@@ -11542,7 +11548,7 @@
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>29</v>
@@ -11589,7 +11595,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>26</v>
@@ -11601,7 +11607,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>38</v>
@@ -11648,7 +11654,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>26</v>
@@ -11660,7 +11666,7 @@
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>29</v>
@@ -11672,7 +11678,7 @@
         <v>40751.88</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>672</v>
@@ -11707,7 +11713,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>26</v>
@@ -11719,7 +11725,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>38</v>
@@ -11731,7 +11737,7 @@
         <v>104028.27</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>1261</v>
@@ -11766,7 +11772,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>26</v>
@@ -11778,19 +11784,19 @@
         <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>140637.54</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>3688</v>
@@ -11825,7 +11831,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>26</v>
@@ -11837,7 +11843,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>66</v>
@@ -11849,7 +11855,7 @@
         <v>93993.94</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>2906</v>
@@ -11884,16 +11890,16 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>28</v>
@@ -11908,7 +11914,7 @@
         <v>30089.73</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>405</v>
@@ -11943,16 +11949,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>28</v>
@@ -11967,7 +11973,7 @@
         <v>57418.4</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>591</v>
@@ -12002,16 +12008,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>28</v>
@@ -12026,7 +12032,7 @@
         <v>83987.1</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>1853</v>
@@ -12061,19 +12067,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>29</v>
@@ -12120,19 +12126,19 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>38</v>
@@ -12179,19 +12185,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>29</v>
@@ -12203,7 +12209,7 @@
         <v>28719.51</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>443</v>
@@ -12238,19 +12244,19 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>38</v>
@@ -12262,7 +12268,7 @@
         <v>54350.22</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>485</v>
@@ -12297,19 +12303,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>66</v>
@@ -12321,7 +12327,7 @@
         <v>48815.65</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>1196</v>
@@ -12356,19 +12362,19 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>29</v>
@@ -12415,19 +12421,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>38</v>
@@ -12474,16 +12480,16 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>57</v>
@@ -12498,7 +12504,7 @@
         <v>47551.37</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>683</v>
@@ -12533,16 +12539,16 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>57</v>
@@ -12557,7 +12563,7 @@
         <v>32702.01</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>308</v>
@@ -12592,16 +12598,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>57</v>
@@ -12616,7 +12622,7 @@
         <v>132717.9</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>3105</v>
@@ -12651,16 +12657,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>71</v>
@@ -12710,16 +12716,16 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>71</v>
@@ -12769,19 +12775,19 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>29</v>
@@ -12828,19 +12834,19 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>38</v>
@@ -12887,19 +12893,19 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>29</v>
@@ -12946,19 +12952,19 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>38</v>
@@ -13005,19 +13011,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>29</v>
@@ -13029,7 +13035,7 @@
         <v>53120.78</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J104" s="0" t="n">
         <v>652</v>
@@ -13064,19 +13070,19 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>38</v>
@@ -13088,7 +13094,7 @@
         <v>14408.17</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>285</v>
@@ -13123,19 +13129,19 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>66</v>
@@ -13147,7 +13153,7 @@
         <v>113759.8</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>2951</v>
@@ -13182,19 +13188,19 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>29</v>
@@ -13241,19 +13247,19 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>38</v>
@@ -13300,19 +13306,19 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>29</v>
@@ -13324,7 +13330,7 @@
         <v>38980.58</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>430</v>
@@ -13359,19 +13365,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>38</v>
@@ -13383,7 +13389,7 @@
         <v>40775.69</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>534</v>
@@ -13418,19 +13424,19 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>66</v>
@@ -13442,7 +13448,7 @@
         <v>226278.65</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>5496</v>
@@ -13493,11 +13499,11 @@
   </sheetPr>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -13515,7 +13521,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13529,7 +13535,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13540,15 +13546,15 @@
         <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>29</v>
@@ -13557,26 +13563,26 @@
         <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>29</v>
@@ -13585,26 +13591,26 @@
         <v>33</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>29</v>
@@ -13613,35 +13619,35 @@
         <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13655,7 +13661,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13663,13 +13669,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,7 +13689,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13697,7 +13703,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13708,15 +13714,15 @@
         <v>38</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>29</v>
@@ -13725,40 +13731,40 @@
         <v>33</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>66</v>
@@ -13767,12 +13773,12 @@
         <v>69</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>29</v>
@@ -13781,26 +13787,26 @@
         <v>33</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>29</v>
@@ -13809,40 +13815,40 @@
         <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>66</v>
@@ -13851,12 +13857,12 @@
         <v>69</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>29</v>
@@ -13865,68 +13871,68 @@
         <v>33</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>29</v>
@@ -13935,26 +13941,26 @@
         <v>72</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>29</v>
@@ -13963,26 +13969,26 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>29</v>
@@ -13991,40 +13997,40 @@
         <v>33</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>29</v>
@@ -14033,26 +14039,26 @@
         <v>33</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>29</v>
@@ -14061,26 +14067,26 @@
         <v>33</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>29</v>
@@ -14089,26 +14095,26 @@
         <v>33</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>66</v>
@@ -14117,12 +14123,12 @@
         <v>69</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>29</v>
@@ -14131,54 +14137,54 @@
         <v>33</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>66</v>
@@ -14187,68 +14193,68 @@
         <v>69</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>29</v>
@@ -14257,40 +14263,40 @@
         <v>33</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>29</v>
@@ -14299,26 +14305,26 @@
         <v>33</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>29</v>
@@ -14327,26 +14333,26 @@
         <v>33</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>29</v>
@@ -14355,40 +14361,40 @@
         <v>33</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>29</v>
@@ -14397,26 +14403,26 @@
         <v>33</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>29</v>
@@ -14425,49 +14431,49 @@
         <v>33</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14481,7 +14487,7 @@
         <v>72</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14492,10 +14498,10 @@
         <v>38</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14509,12 +14515,12 @@
         <v>69</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>29</v>
@@ -14523,26 +14529,26 @@
         <v>72</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>29</v>
@@ -14551,40 +14557,40 @@
         <v>33</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>29</v>
@@ -14593,21 +14599,21 @@
         <v>33</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14618,10 +14624,10 @@
         <v>29</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14632,10 +14638,10 @@
         <v>38</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14646,10 +14652,10 @@
         <v>66</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14663,7 +14669,7 @@
         <v>33</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14674,15 +14680,15 @@
         <v>38</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>29</v>
@@ -14691,26 +14697,26 @@
         <v>33</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>29</v>
@@ -14719,26 +14725,26 @@
         <v>33</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>29</v>
@@ -14747,26 +14753,26 @@
         <v>59</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>66</v>
@@ -14775,12 +14781,12 @@
         <v>69</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>29</v>
@@ -14789,54 +14795,54 @@
         <v>33</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>66</v>
@@ -14845,7 +14851,7 @@
         <v>69</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
